--- a/biology/Botanique/Paula_Clegg/Paula_Clegg.xlsx
+++ b/biology/Botanique/Paula_Clegg/Paula_Clegg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Paula Clegg' est un cultivar de rosier obtenu en 1912 par le rosiériste allemand  Hermann Kiese. Il est issu d'un croisement 'Kaiserin Auguste Viktoria' (Peter Lambert, 1891) x Rosa foetida var. bicolor Willmott[1].
+'Paula Clegg' est un cultivar de rosier obtenu en 1912 par le rosiériste allemand  Hermann Kiese. Il est issu d'un croisement 'Kaiserin Auguste Viktoria' (Peter Lambert, 1891) x Rosa foetida var. bicolor Willmott.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé forme un arbuste moyen au port érigé et aux grandes fleurs doubles rouge cramoisi[2] (17-25  pétales) très parfumées. Sa floraison est remontante.
-Il est très vigoureux et très résistant au froid puisque sa zone de rusticité est de 4b à 9b[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé forme un arbuste moyen au port érigé et aux grandes fleurs doubles rouge cramoisi (17-25  pétales) très parfumées. Sa floraison est remontante.
+Il est très vigoureux et très résistant au froid puisque sa zone de rusticité est de 4b à 9b. 
 On peut l'admirer à l'Europa-Rosarium de Sangerhausen, en Allemagne.
 </t>
         </is>
